--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mfng-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Mfng-Notch1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.36219633333334</v>
+        <v>12.367401</v>
       </c>
       <c r="H2">
-        <v>37.086589</v>
+        <v>37.102203</v>
       </c>
       <c r="I2">
-        <v>0.8692805094072583</v>
+        <v>0.8693283326101076</v>
       </c>
       <c r="J2">
-        <v>0.8692805094072584</v>
+        <v>0.8693283326101076</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N2">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q2">
-        <v>568.12344474285</v>
+        <v>598.881619055743</v>
       </c>
       <c r="R2">
-        <v>5113.11100268565</v>
+        <v>5389.934571501687</v>
       </c>
       <c r="S2">
-        <v>0.5380141242106546</v>
+        <v>0.5486993993943605</v>
       </c>
       <c r="T2">
-        <v>0.5380141242106548</v>
+        <v>0.5486993993943604</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.36219633333334</v>
+        <v>12.367401</v>
       </c>
       <c r="H3">
-        <v>37.086589</v>
+        <v>37.102203</v>
       </c>
       <c r="I3">
-        <v>0.8692805094072583</v>
+        <v>0.8693283326101076</v>
       </c>
       <c r="J3">
-        <v>0.8692805094072584</v>
+        <v>0.8693283326101076</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
         <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P3">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q3">
-        <v>84.67998997591289</v>
+        <v>84.71564149844801</v>
       </c>
       <c r="R3">
-        <v>762.1199097832159</v>
+        <v>762.4407734860321</v>
       </c>
       <c r="S3">
-        <v>0.08019213265468952</v>
+        <v>0.07761704505607774</v>
       </c>
       <c r="T3">
-        <v>0.08019213265468951</v>
+        <v>0.07761704505607772</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.36219633333334</v>
+        <v>12.367401</v>
       </c>
       <c r="H4">
-        <v>37.086589</v>
+        <v>37.102203</v>
       </c>
       <c r="I4">
-        <v>0.8692805094072583</v>
+        <v>0.8693283326101076</v>
       </c>
       <c r="J4">
-        <v>0.8692805094072584</v>
+        <v>0.8693283326101076</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q4">
-        <v>265.1253244505874</v>
+        <v>265.236946115658</v>
       </c>
       <c r="R4">
-        <v>2386.127920055286</v>
+        <v>2387.132515040922</v>
       </c>
       <c r="S4">
-        <v>0.251074252541914</v>
+        <v>0.2430118881596693</v>
       </c>
       <c r="T4">
-        <v>0.2510742525419141</v>
+        <v>0.2430118881596693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>1.434409</v>
       </c>
       <c r="H5">
-        <v>4.303227000000001</v>
+        <v>4.303227</v>
       </c>
       <c r="I5">
-        <v>0.100864260087523</v>
+        <v>0.1008273593013545</v>
       </c>
       <c r="J5">
-        <v>0.100864260087523</v>
+        <v>0.1008273593013546</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N5">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P5">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q5">
-        <v>65.92043681208968</v>
+        <v>69.46012216375365</v>
       </c>
       <c r="R5">
-        <v>593.283931308807</v>
+        <v>625.1410994737829</v>
       </c>
       <c r="S5">
-        <v>0.06242679545656365</v>
+        <v>0.06363983481944713</v>
       </c>
       <c r="T5">
-        <v>0.06242679545656365</v>
+        <v>0.06363983481944711</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>1.434409</v>
       </c>
       <c r="H6">
-        <v>4.303227000000001</v>
+        <v>4.303227</v>
       </c>
       <c r="I6">
-        <v>0.100864260087523</v>
+        <v>0.1008273593013545</v>
       </c>
       <c r="J6">
-        <v>0.100864260087523</v>
+        <v>0.1008273593013546</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N6">
         <v>20.549744</v>
       </c>
       <c r="O6">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P6">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q6">
-        <v>9.825579247098668</v>
+        <v>9.825579247098666</v>
       </c>
       <c r="R6">
-        <v>88.430213223888</v>
+        <v>88.43021322388799</v>
       </c>
       <c r="S6">
-        <v>0.009304844681921049</v>
+        <v>0.009002262317025491</v>
       </c>
       <c r="T6">
-        <v>0.009304844681921047</v>
+        <v>0.009002262317025491</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>1.434409</v>
       </c>
       <c r="H7">
-        <v>4.303227000000001</v>
+        <v>4.303227</v>
       </c>
       <c r="I7">
-        <v>0.100864260087523</v>
+        <v>0.1008273593013545</v>
       </c>
       <c r="J7">
-        <v>0.100864260087523</v>
+        <v>0.1008273593013546</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>21.446458</v>
       </c>
       <c r="N7">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P7">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q7">
-        <v>30.76299237332201</v>
+        <v>30.76299237332199</v>
       </c>
       <c r="R7">
-        <v>276.866931359898</v>
+        <v>276.8669313598979</v>
       </c>
       <c r="S7">
-        <v>0.02913261994903827</v>
+        <v>0.02818526216488193</v>
       </c>
       <c r="T7">
-        <v>0.02913261994903827</v>
+        <v>0.02818526216488194</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.27373</v>
       </c>
       <c r="I8">
-        <v>0.02985523050521867</v>
+        <v>0.02984430808853782</v>
       </c>
       <c r="J8">
-        <v>0.02985523050521867</v>
+        <v>0.02984430808853782</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N8">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O8">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P8">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q8">
-        <v>19.51206338421444</v>
+        <v>20.55978952624111</v>
       </c>
       <c r="R8">
-        <v>175.60857045793</v>
+        <v>185.03810573617</v>
       </c>
       <c r="S8">
-        <v>0.01847796599549333</v>
+        <v>0.01883701854551814</v>
       </c>
       <c r="T8">
-        <v>0.01847796599549334</v>
+        <v>0.01883701854551814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.27373</v>
       </c>
       <c r="I9">
-        <v>0.02985523050521867</v>
+        <v>0.02984430808853782</v>
       </c>
       <c r="J9">
-        <v>0.02985523050521867</v>
+        <v>0.02984430808853782</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,16 +986,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N9">
         <v>20.549744</v>
       </c>
       <c r="O9">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P9">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q9">
         <v>2.908313936124444</v>
@@ -1004,10 +1004,10 @@
         <v>26.17482542512</v>
       </c>
       <c r="S9">
-        <v>0.002754179553322029</v>
+        <v>0.002664616944694036</v>
       </c>
       <c r="T9">
-        <v>0.002754179553322029</v>
+        <v>0.002664616944694036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.27373</v>
       </c>
       <c r="I10">
-        <v>0.02985523050521867</v>
+        <v>0.02984430808853782</v>
       </c>
       <c r="J10">
-        <v>0.02985523050521867</v>
+        <v>0.02984430808853782</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>21.446458</v>
       </c>
       <c r="N10">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O10">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P10">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q10">
-        <v>9.105665649446667</v>
+        <v>9.105665649446665</v>
       </c>
       <c r="R10">
-        <v>81.95099084502002</v>
+        <v>81.95099084501999</v>
       </c>
       <c r="S10">
-        <v>0.0086230849564033</v>
+        <v>0.008342672598325645</v>
       </c>
       <c r="T10">
-        <v>0.008623084956403302</v>
+        <v>0.008342672598325645</v>
       </c>
     </row>
   </sheetData>
